--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Sema7a-Plxnc1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Sema7a-Plxnc1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>43.98780833333333</v>
+        <v>52.47114533333334</v>
       </c>
       <c r="H2">
-        <v>131.963425</v>
+        <v>157.413436</v>
       </c>
       <c r="I2">
-        <v>0.6316313406953905</v>
+        <v>0.6809868250592768</v>
       </c>
       <c r="J2">
-        <v>0.6316313406953904</v>
+        <v>0.6809868250592767</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.4306236666666667</v>
+        <v>0.86876</v>
       </c>
       <c r="N2">
-        <v>1.291871</v>
+        <v>2.60628</v>
       </c>
       <c r="O2">
-        <v>0.006740194435209375</v>
+        <v>0.01188125771802746</v>
       </c>
       <c r="P2">
-        <v>0.006740194435209375</v>
+        <v>0.01188125771802746</v>
       </c>
       <c r="Q2">
-        <v>18.94219131313056</v>
+        <v>45.58483221978667</v>
       </c>
       <c r="R2">
-        <v>170.479721818175</v>
+        <v>410.26348997808</v>
       </c>
       <c r="S2">
-        <v>0.004257318047658908</v>
+        <v>0.008090979971110548</v>
       </c>
       <c r="T2">
-        <v>0.004257318047658908</v>
+        <v>0.008090979971110546</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>43.98780833333333</v>
+        <v>52.47114533333334</v>
       </c>
       <c r="H3">
-        <v>131.963425</v>
+        <v>157.413436</v>
       </c>
       <c r="I3">
-        <v>0.6316313406953905</v>
+        <v>0.6809868250592768</v>
       </c>
       <c r="J3">
-        <v>0.6316313406953904</v>
+        <v>0.6809868250592767</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>13.423849</v>
       </c>
       <c r="O3">
-        <v>0.07003745136231941</v>
+        <v>0.06119534721399281</v>
       </c>
       <c r="P3">
-        <v>0.07003745136231941</v>
+        <v>0.06119534721399281</v>
       </c>
       <c r="Q3">
-        <v>196.8285656358695</v>
+        <v>234.7882439372405</v>
       </c>
       <c r="R3">
-        <v>1771.457090722825</v>
+        <v>2113.094195435164</v>
       </c>
       <c r="S3">
-        <v>0.04423784930287002</v>
+        <v>0.04167322520765702</v>
       </c>
       <c r="T3">
-        <v>0.04423784930287001</v>
+        <v>0.04167322520765702</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>43.98780833333333</v>
+        <v>52.47114533333334</v>
       </c>
       <c r="H4">
-        <v>131.963425</v>
+        <v>157.413436</v>
       </c>
       <c r="I4">
-        <v>0.6316313406953905</v>
+        <v>0.6809868250592768</v>
       </c>
       <c r="J4">
-        <v>0.6316313406953904</v>
+        <v>0.6809868250592767</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>28.689804</v>
+        <v>34.37560266666667</v>
       </c>
       <c r="N4">
-        <v>86.069412</v>
+        <v>103.126808</v>
       </c>
       <c r="O4">
-        <v>0.4490576627264974</v>
+        <v>0.4701245389925625</v>
       </c>
       <c r="P4">
-        <v>0.4490576627264975</v>
+        <v>0.4701245389925625</v>
       </c>
       <c r="Q4">
-        <v>1262.0015994729</v>
+        <v>1803.727243443588</v>
       </c>
       <c r="R4">
-        <v>11358.0143952561</v>
+        <v>16233.54519099229</v>
       </c>
       <c r="S4">
-        <v>0.2836388935574761</v>
+        <v>0.3201486171910013</v>
       </c>
       <c r="T4">
-        <v>0.2836388935574761</v>
+        <v>0.3201486171910012</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>43.98780833333333</v>
+        <v>52.47114533333334</v>
       </c>
       <c r="H5">
-        <v>131.963425</v>
+        <v>157.413436</v>
       </c>
       <c r="I5">
-        <v>0.6316313406953905</v>
+        <v>0.6809868250592768</v>
       </c>
       <c r="J5">
-        <v>0.6316313406953904</v>
+        <v>0.6809868250592767</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5574883333333334</v>
+        <v>0.6906383333333332</v>
       </c>
       <c r="N5">
-        <v>1.672465</v>
+        <v>2.071915</v>
       </c>
       <c r="O5">
-        <v>0.008725901646590447</v>
+        <v>0.009445246130441419</v>
       </c>
       <c r="P5">
-        <v>0.008725901646590447</v>
+        <v>0.009445246130441419</v>
       </c>
       <c r="Q5">
-        <v>24.52268995473611</v>
+        <v>36.23858436110444</v>
       </c>
       <c r="R5">
-        <v>220.704209592625</v>
+        <v>326.14725924994</v>
       </c>
       <c r="S5">
-        <v>0.00551155295581204</v>
+        <v>0.006432088174272721</v>
       </c>
       <c r="T5">
-        <v>0.005511552955812039</v>
+        <v>0.00643208817427272</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>43.98780833333333</v>
+        <v>52.47114533333334</v>
       </c>
       <c r="H6">
-        <v>131.963425</v>
+        <v>157.413436</v>
       </c>
       <c r="I6">
-        <v>0.6316313406953905</v>
+        <v>0.6809868250592768</v>
       </c>
       <c r="J6">
-        <v>0.6316313406953904</v>
+        <v>0.6809868250592767</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>29.73637633333333</v>
+        <v>32.71058766666667</v>
       </c>
       <c r="N6">
-        <v>89.20912899999999</v>
+        <v>98.13176300000001</v>
       </c>
       <c r="O6">
-        <v>0.4654387898293832</v>
+        <v>0.4473536099449758</v>
       </c>
       <c r="P6">
-        <v>0.4654387898293833</v>
+        <v>0.4473536099449758</v>
       </c>
       <c r="Q6">
-        <v>1308.038022678536</v>
+        <v>1716.361999396408</v>
       </c>
       <c r="R6">
-        <v>11772.34220410682</v>
+        <v>15447.25799456767</v>
       </c>
       <c r="S6">
-        <v>0.2939857268315734</v>
+        <v>0.3046419145152352</v>
       </c>
       <c r="T6">
-        <v>0.2939857268315734</v>
+        <v>0.3046419145152351</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>63.84983200000001</v>
       </c>
       <c r="I7">
-        <v>0.3056116116214432</v>
+        <v>0.2762209851911765</v>
       </c>
       <c r="J7">
-        <v>0.3056116116214432</v>
+        <v>0.2762209851911764</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.4306236666666667</v>
+        <v>0.86876</v>
       </c>
       <c r="N7">
-        <v>1.291871</v>
+        <v>2.60628</v>
       </c>
       <c r="O7">
-        <v>0.006740194435209375</v>
+        <v>0.01188125771802746</v>
       </c>
       <c r="P7">
-        <v>0.006740194435209375</v>
+        <v>0.01188125771802746</v>
       </c>
       <c r="Q7">
-        <v>9.165082923963556</v>
+        <v>18.49006001610667</v>
       </c>
       <c r="R7">
-        <v>82.485746315672</v>
+        <v>166.41054014496</v>
       </c>
       <c r="S7">
-        <v>0.00205988168398622</v>
+        <v>0.003281852712183815</v>
       </c>
       <c r="T7">
-        <v>0.00205988168398622</v>
+        <v>0.003281852712183814</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>63.84983200000001</v>
       </c>
       <c r="I8">
-        <v>0.3056116116214432</v>
+        <v>0.2762209851911765</v>
       </c>
       <c r="J8">
-        <v>0.3056116116214432</v>
+        <v>0.2762209851911764</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>13.423849</v>
       </c>
       <c r="O8">
-        <v>0.07003745136231941</v>
+        <v>0.06119534721399281</v>
       </c>
       <c r="P8">
-        <v>0.07003745136231941</v>
+        <v>0.06119534721399281</v>
       </c>
       <c r="Q8">
         <v>95.23450038259645</v>
@@ -948,10 +948,10 @@
         <v>857.1105034433681</v>
       </c>
       <c r="S8">
-        <v>0.02140425838469688</v>
+        <v>0.01690343909656521</v>
       </c>
       <c r="T8">
-        <v>0.02140425838469688</v>
+        <v>0.01690343909656521</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>63.84983200000001</v>
       </c>
       <c r="I9">
-        <v>0.3056116116214432</v>
+        <v>0.2762209851911765</v>
       </c>
       <c r="J9">
-        <v>0.3056116116214432</v>
+        <v>0.2762209851911764</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>28.689804</v>
+        <v>34.37560266666667</v>
       </c>
       <c r="N9">
-        <v>86.069412</v>
+        <v>103.126808</v>
       </c>
       <c r="O9">
-        <v>0.4490576627264974</v>
+        <v>0.4701245389925625</v>
       </c>
       <c r="P9">
-        <v>0.4490576627264975</v>
+        <v>0.4701245389925625</v>
       </c>
       <c r="Q9">
-        <v>610.6130551709761</v>
+        <v>731.6254850551396</v>
       </c>
       <c r="R9">
-        <v>5495.517496538784</v>
+        <v>6584.629365496256</v>
       </c>
       <c r="S9">
-        <v>0.1372372360168034</v>
+        <v>0.1298582633230733</v>
       </c>
       <c r="T9">
-        <v>0.1372372360168034</v>
+        <v>0.1298582633230733</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>63.84983200000001</v>
       </c>
       <c r="I10">
-        <v>0.3056116116214432</v>
+        <v>0.2762209851911765</v>
       </c>
       <c r="J10">
-        <v>0.3056116116214432</v>
+        <v>0.2762209851911764</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.5574883333333334</v>
+        <v>0.6906383333333332</v>
       </c>
       <c r="N10">
-        <v>1.672465</v>
+        <v>2.071915</v>
       </c>
       <c r="O10">
-        <v>0.008725901646590447</v>
+        <v>0.009445246130441419</v>
       </c>
       <c r="P10">
-        <v>0.008725901646590447</v>
+        <v>0.009445246130441419</v>
       </c>
       <c r="Q10">
-        <v>11.86517880843111</v>
+        <v>14.69904718536444</v>
       </c>
       <c r="R10">
-        <v>106.78660927588</v>
+        <v>132.29142466828</v>
       </c>
       <c r="S10">
-        <v>0.002666736865064712</v>
+        <v>0.002608975191523676</v>
       </c>
       <c r="T10">
-        <v>0.002666736865064711</v>
+        <v>0.002608975191523676</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>63.84983200000001</v>
       </c>
       <c r="I11">
-        <v>0.3056116116214432</v>
+        <v>0.2762209851911765</v>
       </c>
       <c r="J11">
-        <v>0.3056116116214432</v>
+        <v>0.2762209851911764</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>29.73637633333333</v>
+        <v>32.71058766666667</v>
       </c>
       <c r="N11">
-        <v>89.20912899999999</v>
+        <v>98.13176300000001</v>
       </c>
       <c r="O11">
-        <v>0.4654387898293832</v>
+        <v>0.4473536099449758</v>
       </c>
       <c r="P11">
-        <v>0.4654387898293833</v>
+        <v>0.4473536099449758</v>
       </c>
       <c r="Q11">
-        <v>632.8875443907031</v>
+        <v>696.1885090459797</v>
       </c>
       <c r="R11">
-        <v>5695.987899516328</v>
+        <v>6265.696581413817</v>
       </c>
       <c r="S11">
-        <v>0.142243498670892</v>
+        <v>0.1235684548678305</v>
       </c>
       <c r="T11">
-        <v>0.142243498670892</v>
+        <v>0.1235684548678305</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.01809766666666666</v>
+        <v>0.2844766666666667</v>
       </c>
       <c r="H12">
-        <v>0.05429299999999999</v>
+        <v>0.85343</v>
       </c>
       <c r="I12">
-        <v>0.0002598686748269442</v>
+        <v>0.003692026556807631</v>
       </c>
       <c r="J12">
-        <v>0.0002598686748269441</v>
+        <v>0.003692026556807631</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.4306236666666667</v>
+        <v>0.86876</v>
       </c>
       <c r="N12">
-        <v>1.291871</v>
+        <v>2.60628</v>
       </c>
       <c r="O12">
-        <v>0.006740194435209375</v>
+        <v>0.01188125771802746</v>
       </c>
       <c r="P12">
-        <v>0.006740194435209375</v>
+        <v>0.01188125771802746</v>
       </c>
       <c r="Q12">
-        <v>0.007793283578111111</v>
+        <v>0.2471419489333333</v>
       </c>
       <c r="R12">
-        <v>0.07013955220299999</v>
+        <v>2.2242775404</v>
       </c>
       <c r="S12">
-        <v>1.751565395953804E-06</v>
+        <v>4.386591902323302E-05</v>
       </c>
       <c r="T12">
-        <v>1.751565395953803E-06</v>
+        <v>4.386591902323301E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.01809766666666666</v>
+        <v>0.2844766666666667</v>
       </c>
       <c r="H13">
-        <v>0.05429299999999999</v>
+        <v>0.85343</v>
       </c>
       <c r="I13">
-        <v>0.0002598686748269442</v>
+        <v>0.003692026556807631</v>
       </c>
       <c r="J13">
-        <v>0.0002598686748269441</v>
+        <v>0.003692026556807631</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>13.423849</v>
       </c>
       <c r="O13">
-        <v>0.07003745136231941</v>
+        <v>0.06119534721399281</v>
       </c>
       <c r="P13">
-        <v>0.07003745136231941</v>
+        <v>0.06119534721399281</v>
       </c>
       <c r="Q13">
-        <v>0.08098011486188889</v>
+        <v>1.272923939118889</v>
       </c>
       <c r="R13">
-        <v>0.7288210337569999</v>
+        <v>11.45631545207</v>
       </c>
       <c r="S13">
-        <v>1.82005396737825E-05</v>
+        <v>0.0002259348470671254</v>
       </c>
       <c r="T13">
-        <v>1.82005396737825E-05</v>
+        <v>0.0002259348470671254</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.01809766666666666</v>
+        <v>0.2844766666666667</v>
       </c>
       <c r="H14">
-        <v>0.05429299999999999</v>
+        <v>0.85343</v>
       </c>
       <c r="I14">
-        <v>0.0002598686748269442</v>
+        <v>0.003692026556807631</v>
       </c>
       <c r="J14">
-        <v>0.0002598686748269441</v>
+        <v>0.003692026556807631</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>28.689804</v>
+        <v>34.37560266666667</v>
       </c>
       <c r="N14">
-        <v>86.069412</v>
+        <v>103.126808</v>
       </c>
       <c r="O14">
-        <v>0.4490576627264974</v>
+        <v>0.4701245389925625</v>
       </c>
       <c r="P14">
-        <v>0.4490576627264975</v>
+        <v>0.4701245389925625</v>
       </c>
       <c r="Q14">
-        <v>0.5192185095239999</v>
+        <v>9.77905686127111</v>
       </c>
       <c r="R14">
-        <v>4.672966585716</v>
+        <v>88.01151175144</v>
       </c>
       <c r="S14">
-        <v>0.0001166960197336197</v>
+        <v>0.001735712282967486</v>
       </c>
       <c r="T14">
-        <v>0.0001166960197336197</v>
+        <v>0.001735712282967486</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.01809766666666666</v>
+        <v>0.2844766666666667</v>
       </c>
       <c r="H15">
-        <v>0.05429299999999999</v>
+        <v>0.85343</v>
       </c>
       <c r="I15">
-        <v>0.0002598686748269442</v>
+        <v>0.003692026556807631</v>
       </c>
       <c r="J15">
-        <v>0.0002598686748269441</v>
+        <v>0.003692026556807631</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.5574883333333334</v>
+        <v>0.6906383333333332</v>
       </c>
       <c r="N15">
-        <v>1.672465</v>
+        <v>2.071915</v>
       </c>
       <c r="O15">
-        <v>0.008725901646590447</v>
+        <v>0.009445246130441419</v>
       </c>
       <c r="P15">
-        <v>0.008725901646590447</v>
+        <v>0.009445246130441419</v>
       </c>
       <c r="Q15">
-        <v>0.01008923802722222</v>
+        <v>0.1964704909388889</v>
       </c>
       <c r="R15">
-        <v>0.090803142245</v>
+        <v>1.76823441845</v>
       </c>
       <c r="S15">
-        <v>2.26758849756971E-06</v>
+        <v>3.487209954917424E-05</v>
       </c>
       <c r="T15">
-        <v>2.267588497569709E-06</v>
+        <v>3.487209954917423E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.01809766666666666</v>
+        <v>0.2844766666666667</v>
       </c>
       <c r="H16">
-        <v>0.05429299999999999</v>
+        <v>0.85343</v>
       </c>
       <c r="I16">
-        <v>0.0002598686748269442</v>
+        <v>0.003692026556807631</v>
       </c>
       <c r="J16">
-        <v>0.0002598686748269441</v>
+        <v>0.003692026556807631</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>29.73637633333333</v>
+        <v>32.71058766666667</v>
       </c>
       <c r="N16">
-        <v>89.20912899999999</v>
+        <v>98.13176300000001</v>
       </c>
       <c r="O16">
-        <v>0.4654387898293832</v>
+        <v>0.4473536099449758</v>
       </c>
       <c r="P16">
-        <v>0.4654387898293833</v>
+        <v>0.4473536099449758</v>
       </c>
       <c r="Q16">
-        <v>0.5381590267552221</v>
+        <v>9.305398944121112</v>
       </c>
       <c r="R16">
-        <v>4.843431240796999</v>
+        <v>83.74859049709001</v>
       </c>
       <c r="S16">
-        <v>0.0001209529615260184</v>
+        <v>0.001651641408200613</v>
       </c>
       <c r="T16">
-        <v>0.0001209529615260184</v>
+        <v>0.001651641408200613</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.321727666666667</v>
+        <v>2.885791333333333</v>
       </c>
       <c r="H17">
-        <v>12.965183</v>
+        <v>8.657373999999999</v>
       </c>
       <c r="I17">
-        <v>0.06205670943029166</v>
+        <v>0.03745269643698477</v>
       </c>
       <c r="J17">
-        <v>0.06205670943029164</v>
+        <v>0.03745269643698476</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.4306236666666667</v>
+        <v>0.86876</v>
       </c>
       <c r="N17">
-        <v>1.291871</v>
+        <v>2.60628</v>
       </c>
       <c r="O17">
-        <v>0.006740194435209375</v>
+        <v>0.01188125771802746</v>
       </c>
       <c r="P17">
-        <v>0.006740194435209375</v>
+        <v>0.01188125771802746</v>
       </c>
       <c r="Q17">
-        <v>1.861038214154778</v>
+        <v>2.507060078746667</v>
       </c>
       <c r="R17">
-        <v>16.749343927393</v>
+        <v>22.56354070872</v>
       </c>
       <c r="S17">
-        <v>0.000418274287569457</v>
+        <v>0.0004449851386028648</v>
       </c>
       <c r="T17">
-        <v>0.0004182742875694569</v>
+        <v>0.0004449851386028647</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4.321727666666667</v>
+        <v>2.885791333333333</v>
       </c>
       <c r="H18">
-        <v>12.965183</v>
+        <v>8.657373999999999</v>
       </c>
       <c r="I18">
-        <v>0.06205670943029166</v>
+        <v>0.03745269643698477</v>
       </c>
       <c r="J18">
-        <v>0.06205670943029164</v>
+        <v>0.03745269643698476</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>13.423849</v>
       </c>
       <c r="O18">
-        <v>0.07003745136231941</v>
+        <v>0.06119534721399281</v>
       </c>
       <c r="P18">
-        <v>0.07003745136231941</v>
+        <v>0.06119534721399281</v>
       </c>
       <c r="Q18">
-        <v>19.33807320548522</v>
+        <v>12.91280903472511</v>
       </c>
       <c r="R18">
-        <v>174.042658849367</v>
+        <v>116.215281312526</v>
       </c>
       <c r="S18">
-        <v>0.00434629376842964</v>
+        <v>0.002291930762561554</v>
       </c>
       <c r="T18">
-        <v>0.004346293768429639</v>
+        <v>0.002291930762561554</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>4.321727666666667</v>
+        <v>2.885791333333333</v>
       </c>
       <c r="H19">
-        <v>12.965183</v>
+        <v>8.657373999999999</v>
       </c>
       <c r="I19">
-        <v>0.06205670943029166</v>
+        <v>0.03745269643698477</v>
       </c>
       <c r="J19">
-        <v>0.06205670943029164</v>
+        <v>0.03745269643698476</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>28.689804</v>
+        <v>34.37560266666667</v>
       </c>
       <c r="N19">
-        <v>86.069412</v>
+        <v>103.126808</v>
       </c>
       <c r="O19">
-        <v>0.4490576627264974</v>
+        <v>0.4701245389925625</v>
       </c>
       <c r="P19">
-        <v>0.4490576627264975</v>
+        <v>0.4701245389925625</v>
       </c>
       <c r="Q19">
-        <v>123.989519698044</v>
+        <v>99.20081625357687</v>
       </c>
       <c r="R19">
-        <v>1115.905677282396</v>
+        <v>892.8073462821918</v>
       </c>
       <c r="S19">
-        <v>0.02786704089326416</v>
+        <v>0.01760743164646585</v>
       </c>
       <c r="T19">
-        <v>0.02786704089326416</v>
+        <v>0.01760743164646585</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>4.321727666666667</v>
+        <v>2.885791333333333</v>
       </c>
       <c r="H20">
-        <v>12.965183</v>
+        <v>8.657373999999999</v>
       </c>
       <c r="I20">
-        <v>0.06205670943029166</v>
+        <v>0.03745269643698477</v>
       </c>
       <c r="J20">
-        <v>0.06205670943029164</v>
+        <v>0.03745269643698476</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.5574883333333334</v>
+        <v>0.6906383333333332</v>
       </c>
       <c r="N20">
-        <v>1.672465</v>
+        <v>2.071915</v>
       </c>
       <c r="O20">
-        <v>0.008725901646590447</v>
+        <v>0.009445246130441419</v>
       </c>
       <c r="P20">
-        <v>0.008725901646590447</v>
+        <v>0.009445246130441419</v>
       </c>
       <c r="Q20">
-        <v>2.409312754010556</v>
+        <v>1.993038116801111</v>
       </c>
       <c r="R20">
-        <v>21.683814786095</v>
+        <v>17.93734305121</v>
       </c>
       <c r="S20">
-        <v>0.000541500742999767</v>
+        <v>0.0003537499360960275</v>
       </c>
       <c r="T20">
-        <v>0.0005415007429997667</v>
+        <v>0.0003537499360960275</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>4.321727666666667</v>
+        <v>2.885791333333333</v>
       </c>
       <c r="H21">
-        <v>12.965183</v>
+        <v>8.657373999999999</v>
       </c>
       <c r="I21">
-        <v>0.06205670943029166</v>
+        <v>0.03745269643698477</v>
       </c>
       <c r="J21">
-        <v>0.06205670943029164</v>
+        <v>0.03745269643698476</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>29.73637633333333</v>
+        <v>32.71058766666667</v>
       </c>
       <c r="N21">
-        <v>89.20912899999999</v>
+        <v>98.13176300000001</v>
       </c>
       <c r="O21">
-        <v>0.4654387898293832</v>
+        <v>0.4473536099449758</v>
       </c>
       <c r="P21">
-        <v>0.4654387898293833</v>
+        <v>0.4473536099449758</v>
       </c>
       <c r="Q21">
-        <v>128.5125203061785</v>
+        <v>94.39593039670689</v>
       </c>
       <c r="R21">
-        <v>1156.612682755607</v>
+        <v>849.5633735703619</v>
       </c>
       <c r="S21">
-        <v>0.02888359973802862</v>
+        <v>0.01675459895325847</v>
       </c>
       <c r="T21">
-        <v>0.02888359973802862</v>
+        <v>0.01675459895325847</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.030675</v>
+        <v>0.12694</v>
       </c>
       <c r="H22">
-        <v>0.092025</v>
+        <v>0.38082</v>
       </c>
       <c r="I22">
-        <v>0.0004404695780478061</v>
+        <v>0.001647466755754405</v>
       </c>
       <c r="J22">
-        <v>0.000440469578047806</v>
+        <v>0.001647466755754405</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.4306236666666667</v>
+        <v>0.86876</v>
       </c>
       <c r="N22">
-        <v>1.291871</v>
+        <v>2.60628</v>
       </c>
       <c r="O22">
-        <v>0.006740194435209375</v>
+        <v>0.01188125771802746</v>
       </c>
       <c r="P22">
-        <v>0.006740194435209375</v>
+        <v>0.01188125771802746</v>
       </c>
       <c r="Q22">
-        <v>0.013209380975</v>
+        <v>0.1102803944</v>
       </c>
       <c r="R22">
-        <v>0.118884428775</v>
+        <v>0.9925235496</v>
       </c>
       <c r="S22">
-        <v>2.968850598836844E-06</v>
+        <v>1.957397710700069E-05</v>
       </c>
       <c r="T22">
-        <v>2.968850598836843E-06</v>
+        <v>1.957397710700069E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.030675</v>
+        <v>0.12694</v>
       </c>
       <c r="H23">
-        <v>0.092025</v>
+        <v>0.38082</v>
       </c>
       <c r="I23">
-        <v>0.0004404695780478061</v>
+        <v>0.001647466755754405</v>
       </c>
       <c r="J23">
-        <v>0.000440469578047806</v>
+        <v>0.001647466755754405</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>13.423849</v>
       </c>
       <c r="O23">
-        <v>0.07003745136231941</v>
+        <v>0.06119534721399281</v>
       </c>
       <c r="P23">
-        <v>0.07003745136231941</v>
+        <v>0.06119534721399281</v>
       </c>
       <c r="Q23">
-        <v>0.137258856025</v>
+        <v>0.5680077973533334</v>
       </c>
       <c r="R23">
-        <v>1.235329704225</v>
+        <v>5.11207017618</v>
       </c>
       <c r="S23">
-        <v>3.084936664910457E-05</v>
+        <v>0.0001008173001419011</v>
       </c>
       <c r="T23">
-        <v>3.084936664910457E-05</v>
+        <v>0.0001008173001419011</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.030675</v>
+        <v>0.12694</v>
       </c>
       <c r="H24">
-        <v>0.092025</v>
+        <v>0.38082</v>
       </c>
       <c r="I24">
-        <v>0.0004404695780478061</v>
+        <v>0.001647466755754405</v>
       </c>
       <c r="J24">
-        <v>0.000440469578047806</v>
+        <v>0.001647466755754405</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>28.689804</v>
+        <v>34.37560266666667</v>
       </c>
       <c r="N24">
-        <v>86.069412</v>
+        <v>103.126808</v>
       </c>
       <c r="O24">
-        <v>0.4490576627264974</v>
+        <v>0.4701245389925625</v>
       </c>
       <c r="P24">
-        <v>0.4490576627264975</v>
+        <v>0.4701245389925625</v>
       </c>
       <c r="Q24">
-        <v>0.8800597376999999</v>
+        <v>4.363639002506666</v>
       </c>
       <c r="R24">
-        <v>7.9205376393</v>
+        <v>39.27275102256</v>
       </c>
       <c r="S24">
-        <v>0.0001977962392202743</v>
+        <v>0.0007745145490546124</v>
       </c>
       <c r="T24">
-        <v>0.0001977962392202743</v>
+        <v>0.0007745145490546123</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.030675</v>
+        <v>0.12694</v>
       </c>
       <c r="H25">
-        <v>0.092025</v>
+        <v>0.38082</v>
       </c>
       <c r="I25">
-        <v>0.0004404695780478061</v>
+        <v>0.001647466755754405</v>
       </c>
       <c r="J25">
-        <v>0.000440469578047806</v>
+        <v>0.001647466755754405</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.5574883333333334</v>
+        <v>0.6906383333333332</v>
       </c>
       <c r="N25">
-        <v>1.672465</v>
+        <v>2.071915</v>
       </c>
       <c r="O25">
-        <v>0.008725901646590447</v>
+        <v>0.009445246130441419</v>
       </c>
       <c r="P25">
-        <v>0.008725901646590447</v>
+        <v>0.009445246130441419</v>
       </c>
       <c r="Q25">
-        <v>0.017100954625</v>
+        <v>0.08766963003333332</v>
       </c>
       <c r="R25">
-        <v>0.153908591625</v>
+        <v>0.7890266702999998</v>
       </c>
       <c r="S25">
-        <v>3.843494216360351E-06</v>
+        <v>1.556072899982018E-05</v>
       </c>
       <c r="T25">
-        <v>3.84349421636035E-06</v>
+        <v>1.556072899982018E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.030675</v>
+        <v>0.12694</v>
       </c>
       <c r="H26">
-        <v>0.092025</v>
+        <v>0.38082</v>
       </c>
       <c r="I26">
-        <v>0.0004404695780478061</v>
+        <v>0.001647466755754405</v>
       </c>
       <c r="J26">
-        <v>0.000440469578047806</v>
+        <v>0.001647466755754405</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>29.73637633333333</v>
+        <v>32.71058766666667</v>
       </c>
       <c r="N26">
-        <v>89.20912899999999</v>
+        <v>98.13176300000001</v>
       </c>
       <c r="O26">
-        <v>0.4654387898293832</v>
+        <v>0.4473536099449758</v>
       </c>
       <c r="P26">
-        <v>0.4654387898293833</v>
+        <v>0.4473536099449758</v>
       </c>
       <c r="Q26">
-        <v>0.9121633440249998</v>
+        <v>4.152281998406667</v>
       </c>
       <c r="R26">
-        <v>8.209470096224999</v>
+        <v>37.37053798566</v>
       </c>
       <c r="S26">
-        <v>0.0002050116273632299</v>
+        <v>0.000737000200451071</v>
       </c>
       <c r="T26">
-        <v>0.0002050116273632299</v>
+        <v>0.0007370002004510709</v>
       </c>
     </row>
   </sheetData>
